--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\San_Marino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
   <si>
     <t>Year</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>550th Anniversary - Death of Filippo Lippi</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol - "R"</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -432,13 +435,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -487,6 +505,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,10 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -511,23 +532,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -566,9 +571,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -843,7 +848,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -860,27 +865,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -902,18 +907,20 @@
       <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="11" t="str">
-        <f t="shared" ref="G3:G17" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -924,11 +931,13 @@
       <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -946,11 +955,13 @@
       <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -969,11 +980,13 @@
       <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -991,11 +1004,13 @@
       <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="25" t="s">
+      <c r="C7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -1013,11 +1028,13 @@
       <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -1035,11 +1052,13 @@
       <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="25" t="s">
+      <c r="C9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -1058,11 +1077,13 @@
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="25" t="s">
+      <c r="C10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -1080,11 +1101,13 @@
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -1102,11 +1125,13 @@
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -1124,11 +1149,13 @@
       <c r="B13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -1146,11 +1173,13 @@
       <c r="B14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="25" t="s">
+      <c r="C14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -1168,11 +1197,13 @@
       <c r="B15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="25" t="s">
+      <c r="C15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -1190,11 +1221,13 @@
       <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -1212,11 +1245,13 @@
       <c r="B17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="25" t="s">
+      <c r="C17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -1234,11 +1269,13 @@
       <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -1256,11 +1293,13 @@
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="25" t="s">
+      <c r="C19" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -1278,11 +1317,13 @@
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="25" t="s">
+      <c r="C20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -1300,11 +1341,13 @@
       <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="25" t="s">
+      <c r="C21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="10" t="s">
@@ -1322,11 +1365,13 @@
       <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="25" t="s">
+      <c r="C22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -1344,11 +1389,13 @@
       <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="25" t="s">
+      <c r="C23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -1366,11 +1413,13 @@
       <c r="B24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="25" t="s">
+      <c r="C24" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -1388,7 +1437,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F24">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1415,7 +1464,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
   <si>
     <t>Year</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Obv: With mint symbol - "R"</t>
+  </si>
+  <si>
+    <t>500 years since the death of Raphael</t>
+  </si>
+  <si>
+    <t>250 years since the death of Giovanni Battista Tiepolo</t>
   </si>
 </sst>
 </file>
@@ -511,6 +517,9 @@
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,9 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -532,7 +538,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -571,9 +585,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -842,13 +856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -865,16 +879,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -884,8 +898,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -907,7 +921,7 @@
       <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -931,7 +945,7 @@
       <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -955,7 +969,7 @@
       <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -980,7 +994,7 @@
       <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1004,7 +1018,7 @@
       <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1028,7 +1042,7 @@
       <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1052,7 +1066,7 @@
       <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1077,7 +1091,7 @@
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -1101,7 +1115,7 @@
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -1125,7 +1139,7 @@
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -1149,7 +1163,7 @@
       <c r="B13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -1173,7 +1187,7 @@
       <c r="B14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -1197,7 +1211,7 @@
       <c r="B15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -1221,7 +1235,7 @@
       <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -1245,7 +1259,7 @@
       <c r="B17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -1269,7 +1283,7 @@
       <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -1293,7 +1307,7 @@
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -1317,7 +1331,7 @@
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -1341,7 +1355,7 @@
       <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -1365,7 +1379,7 @@
       <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -1389,7 +1403,7 @@
       <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -1413,7 +1427,7 @@
       <c r="B24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -1427,6 +1441,50 @@
       </c>
       <c r="G24" s="11" t="str">
         <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="11" t="str">
+        <f t="shared" ref="G25" si="4">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="11" t="str">
+        <f t="shared" ref="G26" si="5">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1436,12 +1494,29 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F25">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F24">
+  <conditionalFormatting sqref="F3:F25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\San_Marino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389DE0CE-3BAA-48D4-AE7A-D353C471B8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t>Year</t>
   </si>
@@ -180,9 +181,6 @@
     <t>63.100</t>
   </si>
   <si>
-    <t>54.150</t>
-  </si>
-  <si>
     <t>Bartolomeo Borghesi</t>
   </si>
   <si>
@@ -253,12 +251,15 @@
   </si>
   <si>
     <t>250 years since the death of Giovanni Battista Tiepolo</t>
+  </si>
+  <si>
+    <t>56.500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,17 +537,9 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -555,6 +548,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -578,16 +579,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -855,30 +856,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -897,7 +898,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
@@ -914,15 +915,15 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2004</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>20</v>
@@ -938,15 +939,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>20</v>
@@ -962,15 +963,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>20</v>
@@ -987,15 +988,15 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2007</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>20</v>
@@ -1011,15 +1012,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2008</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>21</v>
@@ -1035,15 +1036,15 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2009</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>21</v>
@@ -1059,15 +1060,15 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2010</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>21</v>
@@ -1084,15 +1085,15 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2011</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>21</v>
@@ -1108,7 +1109,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2012</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>21</v>
@@ -1132,15 +1133,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2013</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>21</v>
@@ -1156,15 +1157,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2014</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>21</v>
@@ -1180,15 +1181,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2014</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>21</v>
@@ -1204,15 +1205,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2015</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>21</v>
@@ -1228,15 +1229,15 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>21</v>
@@ -1252,15 +1253,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>21</v>
@@ -1276,15 +1277,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2016</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>21</v>
@@ -1300,15 +1301,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>21</v>
@@ -1324,15 +1325,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2017</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>21</v>
@@ -1348,15 +1349,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>21</v>
@@ -1372,15 +1373,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2018</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>21</v>
@@ -1396,21 +1397,21 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>7</v>
@@ -1420,21 +1421,21 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>2019</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>7</v>
@@ -1444,20 +1445,22 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>2020</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="F25" s="10" t="s">
         <v>7</v>
       </c>
@@ -1466,20 +1469,22 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>2020</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="21"/>
       <c r="F26" s="10" t="s">
         <v>7</v>
       </c>
@@ -1512,7 +1517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1535,21 +1540,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1582,7 +1587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1593,7 +1598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1628,12 +1633,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\San_Marino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389DE0CE-3BAA-48D4-AE7A-D353C471B8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A13CAD-2F42-47A1-9A74-71F3B977E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
   <si>
     <t>Year</t>
   </si>
@@ -254,6 +263,33 @@
   </si>
   <si>
     <t>56.500</t>
+  </si>
+  <si>
+    <t>450th Anniversary - Birth of Caravaggio</t>
+  </si>
+  <si>
+    <t>54.000</t>
+  </si>
+  <si>
+    <t>550th Anniversary - Birth of Albrecht Dürer</t>
+  </si>
+  <si>
+    <t>530th Anniversary - Death of Piero della Francesca</t>
+  </si>
+  <si>
+    <t>55.000</t>
+  </si>
+  <si>
+    <t>200th Anniversary - Death of Antonio Canova</t>
+  </si>
+  <si>
+    <t>56.000</t>
+  </si>
+  <si>
+    <t>500th Anniversary - Death of Luca Signorelli</t>
+  </si>
+  <si>
+    <t>500th Anniversary - Death of Perugino</t>
   </si>
 </sst>
 </file>
@@ -539,7 +575,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -586,9 +638,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -857,29 +909,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -898,7 +950,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
@@ -915,7 +967,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2004</v>
       </c>
@@ -939,7 +991,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
@@ -963,7 +1015,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
@@ -988,7 +1040,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2007</v>
       </c>
@@ -1012,7 +1064,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2008</v>
       </c>
@@ -1036,7 +1088,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2009</v>
       </c>
@@ -1060,7 +1112,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2010</v>
       </c>
@@ -1085,7 +1137,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2011</v>
       </c>
@@ -1109,7 +1161,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2012</v>
       </c>
@@ -1133,7 +1185,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2013</v>
       </c>
@@ -1157,7 +1209,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2014</v>
       </c>
@@ -1181,7 +1233,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2014</v>
       </c>
@@ -1205,7 +1257,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2015</v>
       </c>
@@ -1229,7 +1281,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -1253,7 +1305,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
@@ -1277,7 +1329,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2016</v>
       </c>
@@ -1301,7 +1353,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2017</v>
       </c>
@@ -1325,7 +1377,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2017</v>
       </c>
@@ -1349,7 +1401,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -1373,7 +1425,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2018</v>
       </c>
@@ -1397,7 +1449,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -1421,7 +1473,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2019</v>
       </c>
@@ -1445,7 +1497,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2020</v>
       </c>
@@ -1469,7 +1521,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2020</v>
       </c>
@@ -1489,7 +1541,151 @@
         <v>7</v>
       </c>
       <c r="G26" s="11" t="str">
-        <f t="shared" ref="G26" si="5">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G26:G27" si="5">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f t="shared" ref="G28:G29" si="6">IF(OR(AND(F28&gt;1,F28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f t="shared" ref="G30:G32" si="7">IF(OR(AND(F30&gt;1,F30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="11" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1500,11 +1696,45 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F25">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27 F29 F31">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27 F29 F31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1516,12 +1746,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+  <conditionalFormatting sqref="F28 F30 F32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="F28 F30 F32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1544,17 +1774,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -1565,7 +1795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1576,7 +1806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1587,7 +1817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1598,7 +1828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1609,7 +1839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1620,7 +1850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A13CAD-2F42-47A1-9A74-71F3B977E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B50D696-4945-4CFF-89C2-08162611B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="3860" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>500th Anniversary - Death of Perugino</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -577,6 +577,15 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -591,15 +600,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -638,9 +638,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -915,7 +915,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -936,17 +936,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -954,16 +954,16 @@
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -972,19 +972,19 @@
         <v>2004</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="11" t="str">
         <f t="shared" ref="G3" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -996,19 +996,19 @@
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="11" t="str">
         <f t="shared" ref="G4:G5" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
@@ -1020,19 +1020,19 @@
         <v>2006</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1045,19 +1045,19 @@
         <v>2007</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="11" t="str">
         <f t="shared" ref="G6:G17" si="2">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
@@ -1069,19 +1069,19 @@
         <v>2008</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1093,19 +1093,19 @@
         <v>2009</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1117,19 +1117,19 @@
         <v>2010</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1142,19 +1142,19 @@
         <v>2011</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1166,19 +1166,19 @@
         <v>2012</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1190,19 +1190,19 @@
         <v>2013</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1214,19 +1214,19 @@
         <v>2014</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1238,19 +1238,19 @@
         <v>2014</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1262,19 +1262,19 @@
         <v>2015</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1286,19 +1286,19 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1310,19 +1310,19 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1334,19 +1334,19 @@
         <v>2016</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="11" t="str">
         <f t="shared" ref="G18:G24" si="3">IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
@@ -1358,19 +1358,19 @@
         <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="11" t="str">
         <f t="shared" si="3"/>
@@ -1382,19 +1382,19 @@
         <v>2017</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="11" t="str">
         <f t="shared" si="3"/>
@@ -1406,19 +1406,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" s="11" t="str">
         <f t="shared" si="3"/>
@@ -1430,19 +1430,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" s="11" t="str">
         <f t="shared" si="3"/>
@@ -1454,19 +1454,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="11" t="str">
         <f t="shared" si="3"/>
@@ -1478,19 +1478,19 @@
         <v>2019</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" s="11" t="str">
         <f t="shared" si="3"/>
@@ -1502,19 +1502,19 @@
         <v>2020</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" s="11" t="str">
         <f t="shared" ref="G25" si="4">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
@@ -1526,19 +1526,19 @@
         <v>2020</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>61</v>
-      </c>
       <c r="F26" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" s="11" t="str">
         <f t="shared" ref="G26:G27" si="5">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
@@ -1550,19 +1550,19 @@
         <v>2021</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>63</v>
-      </c>
       <c r="F27" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" s="11" t="str">
         <f t="shared" si="5"/>
@@ -1574,19 +1574,19 @@
         <v>2021</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" s="11" t="str">
         <f t="shared" ref="G28:G29" si="6">IF(OR(AND(F28&gt;1,F28&lt;&gt;"-")),"Can exchange","")</f>
@@ -1598,19 +1598,19 @@
         <v>2022</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>66</v>
-      </c>
       <c r="F29" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" s="11" t="str">
         <f t="shared" si="6"/>
@@ -1622,19 +1622,19 @@
         <v>2022</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G30" s="11" t="str">
         <f t="shared" ref="G30:G32" si="7">IF(OR(AND(F30&gt;1,F30&lt;&gt;"-")),"Can exchange","")</f>
@@ -1646,19 +1646,19 @@
         <v>2023</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31" s="11" t="str">
         <f t="shared" si="7"/>
@@ -1670,19 +1670,19 @@
         <v>2023</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32" s="11" t="str">
         <f t="shared" si="7"/>
@@ -1730,11 +1730,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27 F29 F31">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27 F29 F31">
+  <conditionalFormatting sqref="F29 F27 F31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1747,11 +1747,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28 F30 F32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28 F30 F32">
+  <conditionalFormatting sqref="F30 F28 F32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1786,13 +1786,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1800,10 +1800,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1811,10 +1811,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1822,10 +1822,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1833,10 +1833,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1844,10 +1844,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1855,10 +1855,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
